--- a/biology/Médecine/Articulation_tibio-fibulaire_distale/Articulation_tibio-fibulaire_distale.xlsx
+++ b/biology/Médecine/Articulation_tibio-fibulaire_distale/Articulation_tibio-fibulaire_distale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'articulation tibio-fibulaire distale (ou articulation péronéo-tibiale inférieure ou syndesmose tibio-fibulaire ou syndesmose péronéo-tibiale) est l'amphiarthrose formée par les extrémités distales du tibia et de la fibula.
 </t>
@@ -511,7 +523,9 @@
           <t>Surfaces articulaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les surfaces articulaires de l'articulation tibio-fibulaire distale sont :
 la surface articulaire concave située dans la partie inférieure de l'incisure fibulaire du tibia,
@@ -545,7 +559,9 @@
           <t>Moyens d'union</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'articulation tibio-fibulaire distale est maintenu par :
 le ligament tibio-fibulaire antérieur entre le bord antérieur de la face articulaire inférieure du tibia et la malléole latérale,
